--- a/biology/Botanique/Convolvulus_durandoi/Convolvulus_durandoi.xlsx
+++ b/biology/Botanique/Convolvulus_durandoi/Convolvulus_durandoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus durandoi est un liseron dédié à Gaetano Leone Durando (1811-1892)[2], le récolteur des deux syntypes. C'est une plante de la famille des Convolvulacées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus durandoi est un liseron dédié à Gaetano Leone Durando (1811-1892), le récolteur des deux syntypes. C'est une plante de la famille des Convolvulacées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Description extraite de Battandier, J. A. &amp; Trabut, M. (1888), p. 592.
 Appareil végétatif : Souche ligneuse grosse comme le pouce, brune ; tiges robustes étalées, peu volubiles ; feuilles vert sombre, un peu charnues, finement nerviées en réseau transparent, les inférieures souvent orbiculaires, tronquées à la base.
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce liseron pousse dans des terrains marécageux ou des prairies humides.
 En Algérie, il pousse(ait ?) à El Kala, Djebel Ouahch et dans la Mitidja.
@@ -576,7 +592,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Battandier et Trabut (1888, p. 512) écrivaient déjà : « excellente espèce en voie de disparition,
 un seul défrichement la détruit sans retour ».
@@ -611,7 +629,9 @@
           <t>Mesures de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La population d'El Kala est protégée dans le parc national d'El-Kala.
 L'UICN demande également
